--- a/biology/Botanique/Agripaume/Agripaume.xlsx
+++ b/biology/Botanique/Agripaume/Agripaume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'agripaume ou agripaume cardiaque (Leonurus cardiaca) est une plante vivace de la famille des Lamiaceae, présente dans toute l'Europe, sauf en Méditerranée, de 0,50 à 1,20 m, dont on utilise les feuilles et les fleurs. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Agripaume vient du latin "acer, acris", qui signifie "pointu" et "palma", désignant la paume de la main. Ceci fait référence à la forme des feuilles aux lobes aigus.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La tige est raide, à section carrée, très ramifiée et feuillée. Les feuilles sont vert foncé dessus et cendré dessous. Les fleurs sont rose pourpré, serrées sur toute la longueur de la tige (fleurs sessiles).
 </t>
@@ -573,9 +589,11 @@
           <t>Usage médicinal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'agripaume est utilisée comme antispasmodique dans les troubles nerveux et les palpitations, ainsi que dans le traitement des diarrhées, bronchites et ballonnements[1]. Il semble qu'on ait cru longtemps qu'elle pouvait calmer les douleurs de l'accouchement. Selon ses origines, elle était cultivée comme plante médicinale pour guérir la rage[réf. nécessaire].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'agripaume est utilisée comme antispasmodique dans les troubles nerveux et les palpitations, ainsi que dans le traitement des diarrhées, bronchites et ballonnements. Il semble qu'on ait cru longtemps qu'elle pouvait calmer les douleurs de l'accouchement. Selon ses origines, elle était cultivée comme plante médicinale pour guérir la rage[réf. nécessaire].
 </t>
         </is>
       </c>
